--- a/public/assets/pegawai-import-format.xlsx
+++ b/public/assets/pegawai-import-format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c08bad89f7a1abf0/Documents/Project Freelance/SPPD/sppd/public/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hikug\Documents\Freelance\SPPD\SPPD - BPKAD - Bit\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{460196CA-4956-4235-A9AB-91AA868D5EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0087A989-D346-42C8-9351-3FF5F09FDC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC6B2F7-F65A-496E-A3CB-17940B78D462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DFC6B2F7-F65A-496E-A3CB-17940B78D462}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>Tidak</t>
+  </si>
+  <si>
+    <t>No Rek</t>
+  </si>
+  <si>
+    <t>234345</t>
+  </si>
+  <si>
+    <t>1232345</t>
+  </si>
+  <si>
+    <t>16821212</t>
+  </si>
+  <si>
+    <t>121476212</t>
   </si>
 </sst>
 </file>
@@ -178,7 +193,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipertaut" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -195,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -491,28 +506,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674135AB-82EE-4D2E-91DA-2A9F7B3B0872}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" customWidth="1"/>
+    <col min="7" max="7" width="27.1796875" customWidth="1"/>
+    <col min="8" max="8" width="33.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,28 +541,31 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -557,32 +575,35 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
-        <v>234345</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -592,35 +613,38 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>1232345</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{D7DE4AF0-4D61-4C76-B546-797B84775B19}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{E56B2776-28DD-41F3-B9C8-9C7EE9C3676E}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{D7DE4AF0-4D61-4C76-B546-797B84775B19}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{E56B2776-28DD-41F3-B9C8-9C7EE9C3676E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
